--- a/MathEconomicAnnuitet.xlsx
+++ b/MathEconomicAnnuitet.xlsx
@@ -25,6 +25,13 @@
     <definedName name="N">'Лист2 (2)'!$B$3</definedName>
     <definedName name="PV">'Лист2 (2)'!$B$1</definedName>
     <definedName name="Q">[1]Лист1!$B$2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Лист2 (2)'!$B$10</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -412,7 +419,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +428,6 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>1200</v>
-      </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
@@ -433,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -441,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -449,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -457,19 +461,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>(1+I)^N*I*(PV-G*(1-(1+I)^(-N+1))/I/A)</f>
-        <v>28.112242175004258</v>
+        <v>-3.5774806569779175E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>(1+I)^N-1</f>
-        <v>0.17165938100226552</v>
+        <v>1.249244197093375</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,7 +482,7 @@
       </c>
       <c r="B8">
         <f>B6/B7</f>
-        <v>163.76758445047196</v>
+        <v>-2.8637160495135108E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -487,7 +491,7 @@
       </c>
       <c r="B10">
         <f>1/I*(A+G*(1-(1+I)^(-N+1))/I - (A+(N-1)*G)/(1+I)^N)</f>
-        <v>4284.6888089641143</v>
+        <v>999.71218707092225</v>
       </c>
     </row>
   </sheetData>
